--- a/puneetcrg-pasystemapi-886216906a57/PASystem.API/Upload/holiday.xlsx
+++ b/puneetcrg-pasystemapi-886216906a57/PASystem.API/Upload/holiday.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>sno</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -222,7 +222,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,19 +541,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7">
         <v>43831</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
@@ -578,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>44107</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
@@ -595,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
         <v>43835</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
@@ -612,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>43898</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
@@ -629,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8">
         <v>44055</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
@@ -646,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>44058</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -663,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>43839</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
@@ -680,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
         <v>43871</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -697,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8">
         <v>44151</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -714,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8">
         <v>44190</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
